--- a/data/trans_orig/P64DS2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D72497B-A851-4806-93B8-6845615A0049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6C6EA7-CB78-4828-BF34-666F272BC78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D5DEEDA-F5B6-4492-ABD2-20EF6D7FAE69}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42490C2A-B336-4936-B5CB-8EC5729AAFFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="311">
   <si>
     <t>Población según el método de desplazamiento que utiliza para ir al trabajo / respuesta 2 en 2023 (Tasa respuesta: 42,62%)</t>
   </si>
@@ -95,886 +95,877 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>En vehículo particular (automóvil, moto)</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>En bicicleta</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>En vehículo particular (automóvil, moto)</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>En bicicleta</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
     <t>6,82%</t>
   </si>
   <si>
+    <t>6,04%</t>
+  </si>
+  <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1389,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBE705D-C7F8-4786-BE5D-BAF1E7677020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC86AF39-875A-4168-9E2C-5317C299D4AA}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2028,10 +2019,10 @@
         <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2040,13 +2031,13 @@
         <v>14071</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -2055,13 +2046,13 @@
         <v>20703</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2288,22 +2279,22 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2312,13 +2303,13 @@
         <v>982</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2324,13 @@
         <v>1936</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2348,13 +2339,13 @@
         <v>8097</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2363,13 +2354,13 @@
         <v>10034</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2375,13 @@
         <v>17074</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2399,13 +2390,13 @@
         <v>11224</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>30</v>
@@ -2414,13 +2405,13 @@
         <v>28298</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,14 +2426,14 @@
         <v>1035</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
@@ -2456,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2465,13 +2456,13 @@
         <v>1035</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2477,13 @@
         <v>130135</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>148</v>
@@ -2501,13 +2492,13 @@
         <v>108390</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>278</v>
@@ -2516,13 +2507,13 @@
         <v>238525</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,7 +2569,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2596,37 +2587,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,37 +2638,37 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2683,13 @@
         <v>1215</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2713,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2722,13 +2713,13 @@
         <v>2662</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,10 +2734,10 @@
         <v>5129</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>142</v>
@@ -2776,10 +2767,10 @@
         <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,37 +2791,37 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2836,13 @@
         <v>168403</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>195</v>
@@ -2860,13 +2851,13 @@
         <v>188904</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>319</v>
@@ -2875,13 +2866,13 @@
         <v>357307</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2928,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2955,37 +2946,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,37 +2997,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,14 +3042,14 @@
         <v>1554</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
@@ -3072,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3081,13 +3072,13 @@
         <v>1554</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3093,13 @@
         <v>34407</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H35" s="7">
         <v>94</v>
@@ -3117,13 +3108,13 @@
         <v>44841</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M35" s="7">
         <v>142</v>
@@ -3132,13 +3123,13 @@
         <v>79248</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,37 +3150,37 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3195,13 @@
         <v>89067</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H37" s="7">
         <v>146</v>
@@ -3219,13 +3210,13 @@
         <v>73440</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M37" s="7">
         <v>268</v>
@@ -3234,13 +3225,13 @@
         <v>162507</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3287,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3314,37 +3305,37 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,37 +3356,37 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3401,13 @@
         <v>160</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3425,13 +3416,13 @@
         <v>1386</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -3440,13 +3431,13 @@
         <v>1546</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3452,13 @@
         <v>18360</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H42" s="7">
         <v>25</v>
@@ -3476,13 +3467,13 @@
         <v>17171</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M42" s="7">
         <v>45</v>
@@ -3491,13 +3482,13 @@
         <v>35531</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,37 +3509,37 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3554,13 @@
         <v>120149</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H44" s="7">
         <v>102</v>
@@ -3578,13 +3569,13 @@
         <v>74387</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="M44" s="7">
         <v>236</v>
@@ -3593,13 +3584,13 @@
         <v>194537</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,7 +3646,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3673,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3682,13 +3673,13 @@
         <v>159</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3697,13 +3688,13 @@
         <v>159</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3709,13 @@
         <v>2556</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -3733,13 +3724,13 @@
         <v>1364</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3748,13 +3739,13 @@
         <v>3920</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3760,13 @@
         <v>10432</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H48" s="7">
         <v>21</v>
@@ -3787,10 +3778,10 @@
         <v>61</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M48" s="7">
         <v>31</v>
@@ -3799,13 +3790,13 @@
         <v>22094</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3811,13 @@
         <v>6647</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H49" s="7">
         <v>20</v>
@@ -3835,13 +3826,13 @@
         <v>14216</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M49" s="7">
         <v>27</v>
@@ -3850,13 +3841,13 @@
         <v>20863</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3907,7 +3898,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3913,13 @@
         <v>317401</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H51" s="7">
         <v>409</v>
@@ -3937,13 +3928,13 @@
         <v>301876</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M51" s="7">
         <v>704</v>
@@ -3952,13 +3943,13 @@
         <v>619277</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,7 +4005,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4032,7 +4023,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4047,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -4056,13 +4047,13 @@
         <v>808</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,7 +4074,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4098,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4113,7 +4104,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4119,13 @@
         <v>66846</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H55" s="7">
         <v>74</v>
@@ -4143,13 +4134,13 @@
         <v>67834</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M55" s="7">
         <v>134</v>
@@ -4158,13 +4149,13 @@
         <v>134679</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4170,13 @@
         <v>6383</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H56" s="7">
         <v>8</v>
@@ -4194,13 +4185,13 @@
         <v>7547</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M56" s="7">
         <v>13</v>
@@ -4209,13 +4200,13 @@
         <v>13931</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -4245,13 +4236,13 @@
         <v>1064</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M57" s="7">
         <v>1</v>
@@ -4260,13 +4251,13 @@
         <v>1064</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4272,13 @@
         <v>432862</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H58" s="7">
         <v>293</v>
@@ -4296,13 +4287,13 @@
         <v>253566</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M58" s="7">
         <v>613</v>
@@ -4311,13 +4302,13 @@
         <v>686428</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4376,13 @@
         <v>1821</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="H60" s="7">
         <v>3</v>
@@ -4400,13 +4391,13 @@
         <v>1650</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
@@ -4415,13 +4406,13 @@
         <v>3471</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4427,13 @@
         <v>6885</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="H61" s="7">
         <v>5</v>
@@ -4451,13 +4442,13 @@
         <v>4974</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K61" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M61" s="7">
         <v>12</v>
@@ -4466,13 +4457,13 @@
         <v>11859</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4478,13 @@
         <v>91231</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H62" s="7">
         <v>117</v>
@@ -4502,13 +4493,13 @@
         <v>98747</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M62" s="7">
         <v>198</v>
@@ -4517,13 +4508,13 @@
         <v>189977</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4529,13 @@
         <v>105132</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H63" s="7">
         <v>201</v>
@@ -4553,13 +4544,13 @@
         <v>123478</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M63" s="7">
         <v>322</v>
@@ -4568,13 +4559,13 @@
         <v>228610</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4580,13 @@
         <v>1035</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -4604,13 +4595,13 @@
         <v>1064</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
@@ -4619,13 +4610,13 @@
         <v>2100</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4631,13 @@
         <v>1636918</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H65" s="7">
         <v>1718</v>
@@ -4655,13 +4646,13 @@
         <v>1281484</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M65" s="7">
         <v>3188</v>
@@ -4670,13 +4661,13 @@
         <v>2918403</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,7 +4723,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64DS2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6C6EA7-CB78-4828-BF34-666F272BC78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2F905CE-8964-4BDB-B469-432571B215BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42490C2A-B336-4936-B5CB-8EC5729AAFFE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62D058B5-D5AC-48DF-8F04-9EAEE53C3A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC86AF39-875A-4168-9E2C-5317C299D4AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73E6743-DA4D-48C8-8BFB-C0F26A7121A1}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
